--- a/datagizi.xlsx
+++ b/datagizi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahru\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sipt_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2671296-39CA-48E9-827D-2225D5D76AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EDCDC5-7259-430D-8093-A2EE63045DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7AB274CF-EEAD-49D7-B622-23CC650CDFB0}"/>
   </bookViews>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="267">
   <si>
     <t>ID</t>
   </si>
@@ -1008,13 +1008,19 @@
   </si>
   <si>
     <t>Perempuan &lt; 47 cm</t>
+  </si>
+  <si>
+    <t>KODE</t>
+  </si>
+  <si>
+    <t>NILAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,8 +1041,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,8 +1073,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1085,11 +1103,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1124,6 +1153,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1440,15 +1481,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D16ACC9-0FF1-4A96-A679-51B3A5F8EC00}">
-  <dimension ref="A1:D248"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D248"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1459,10 +1503,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1476,8 +1523,9 @@
         <f>D3+D4</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1490,8 +1538,11 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="11">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1504,8 +1555,11 @@
       <c r="D4" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="11">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1518,8 +1572,9 @@
       <c r="D5" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1532,8 +1587,11 @@
       <c r="D6" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="11">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1546,8 +1604,11 @@
       <c r="D7" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="11">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1560,8 +1621,9 @@
       <c r="D8" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1574,8 +1636,9 @@
       <c r="D9" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1588,8 +1651,11 @@
       <c r="D10" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="11">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1602,8 +1668,11 @@
       <c r="D11" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="11">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1616,8 +1685,9 @@
       <c r="D12" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1630,8 +1700,11 @@
       <c r="D13" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1644,8 +1717,11 @@
       <c r="D14" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="11">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1658,8 +1734,9 @@
       <c r="D15" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1672,8 +1749,11 @@
       <c r="D16" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="11">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1686,8 +1766,11 @@
       <c r="D17" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="11">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1700,8 +1783,9 @@
       <c r="D18" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1714,8 +1798,11 @@
       <c r="D19" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="11">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1728,8 +1815,11 @@
       <c r="D20" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="11">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1742,8 +1832,9 @@
       <c r="D21" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1756,8 +1847,11 @@
       <c r="D22" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="11">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1770,8 +1864,11 @@
       <c r="D23" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1784,8 +1881,9 @@
       <c r="D24" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1798,8 +1896,11 @@
       <c r="D25" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="11">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1812,8 +1913,11 @@
       <c r="D26" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="11">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1826,8 +1930,9 @@
       <c r="D27" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1840,8 +1945,9 @@
       <c r="D28" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1854,8 +1960,11 @@
       <c r="D29" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="11">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1868,8 +1977,11 @@
       <c r="D30" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1882,8 +1994,9 @@
       <c r="D31" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1896,8 +2009,11 @@
       <c r="D32" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="11">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1910,8 +2026,11 @@
       <c r="D33" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="11">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1924,8 +2043,9 @@
       <c r="D34" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1938,8 +2058,11 @@
       <c r="D35" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="11">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1952,8 +2075,11 @@
       <c r="D36" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="11">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1966,8 +2092,9 @@
       <c r="D37" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1980,8 +2107,11 @@
       <c r="D38" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="11">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1994,8 +2124,11 @@
       <c r="D39" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="11">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2008,8 +2141,9 @@
       <c r="D40" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2022,8 +2156,11 @@
       <c r="D41" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="11">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2036,8 +2173,11 @@
       <c r="D42" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="11">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2050,8 +2190,9 @@
       <c r="D43" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2064,8 +2205,9 @@
       <c r="D44" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2078,8 +2220,11 @@
       <c r="D45" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="11">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2092,8 +2237,11 @@
       <c r="D46" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="11">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2106,8 +2254,9 @@
       <c r="D47" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2120,8 +2269,11 @@
       <c r="D48" s="5">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="11">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2134,8 +2286,11 @@
       <c r="D49" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="11">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2148,8 +2303,9 @@
       <c r="D50" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2162,8 +2318,11 @@
       <c r="D51" s="5">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="11">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2176,8 +2335,11 @@
       <c r="D52" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="11">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2190,8 +2352,9 @@
       <c r="D53" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2204,8 +2367,11 @@
       <c r="D54" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="11">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2218,8 +2384,11 @@
       <c r="D55" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="11">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2232,8 +2401,9 @@
       <c r="D56" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2246,8 +2416,11 @@
       <c r="D57" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="11">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2260,8 +2433,11 @@
       <c r="D58" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="11">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2274,8 +2450,9 @@
       <c r="D59" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2288,8 +2465,9 @@
       <c r="D60" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2302,8 +2480,11 @@
       <c r="D61" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2316,8 +2497,11 @@
       <c r="D62" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="11">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2330,8 +2514,9 @@
       <c r="D63" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2344,8 +2529,11 @@
       <c r="D64" s="5">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="11">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -2358,8 +2546,11 @@
       <c r="D65" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="11">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2372,8 +2563,9 @@
       <c r="D66" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -2386,8 +2578,11 @@
       <c r="D67" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="11">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -2400,8 +2595,11 @@
       <c r="D68" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="11">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2414,8 +2612,9 @@
       <c r="D69" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -2428,8 +2627,11 @@
       <c r="D70" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="11">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -2442,8 +2644,11 @@
       <c r="D71" s="5">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="11">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2456,8 +2661,9 @@
       <c r="D72" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -2470,8 +2676,11 @@
       <c r="D73" s="5">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="11">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -2484,8 +2693,11 @@
       <c r="D74" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="11">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2498,8 +2710,9 @@
       <c r="D75" s="5">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2512,8 +2725,9 @@
       <c r="D76" s="5">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="11"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -2526,8 +2740,11 @@
       <c r="D77" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="11">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -2540,8 +2757,11 @@
       <c r="D78" s="5">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="11">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2554,8 +2774,9 @@
       <c r="D79" s="5">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -2568,8 +2789,11 @@
       <c r="D80" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="11">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -2582,8 +2806,11 @@
       <c r="D81" s="5">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="11">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2596,8 +2823,9 @@
       <c r="D82" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -2610,8 +2838,11 @@
       <c r="D83" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="11">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -2624,8 +2855,11 @@
       <c r="D84" s="5">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="11">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2638,8 +2872,9 @@
       <c r="D85" s="5">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -2652,8 +2887,11 @@
       <c r="D86" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="11">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -2666,8 +2904,11 @@
       <c r="D87" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2680,8 +2921,9 @@
       <c r="D88" s="5">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="11"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -2694,8 +2936,11 @@
       <c r="D89" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="11">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -2708,8 +2953,11 @@
       <c r="D90" s="5">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="11">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -2722,8 +2970,9 @@
       <c r="D91" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="11"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2736,8 +2985,9 @@
       <c r="D92" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="11"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -2750,8 +3000,11 @@
       <c r="D93" s="5">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="11">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -2764,8 +3017,11 @@
       <c r="D94" s="5">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="11">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -2778,8 +3034,9 @@
       <c r="D95" s="5">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -2792,8 +3049,11 @@
       <c r="D96" s="5">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="11">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -2806,8 +3066,11 @@
       <c r="D97" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="11">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -2820,8 +3083,9 @@
       <c r="D98" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="11"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -2834,8 +3098,11 @@
       <c r="D99" s="5">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="11">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -2848,8 +3115,11 @@
       <c r="D100" s="5">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="11">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -2862,8 +3132,9 @@
       <c r="D101" s="5">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -2876,8 +3147,11 @@
       <c r="D102" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -2890,8 +3164,11 @@
       <c r="D103" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="11">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -2904,8 +3181,9 @@
       <c r="D104" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="11"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -2918,8 +3196,11 @@
       <c r="D105" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -2932,8 +3213,11 @@
       <c r="D106" s="5">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="11">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -2946,8 +3230,9 @@
       <c r="D107" s="5">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="11"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -2960,8 +3245,11 @@
       <c r="D108" s="5">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="11">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -2974,8 +3262,11 @@
       <c r="D109" s="5">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="11">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -2988,8 +3279,9 @@
       <c r="D110" s="5">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="11"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -3002,8 +3294,11 @@
       <c r="D111" s="5">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -3016,8 +3311,11 @@
       <c r="D112" s="5">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="11">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -3030,8 +3328,9 @@
       <c r="D113" s="5">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -3044,8 +3343,11 @@
       <c r="D114" s="5">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="11">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -3058,8 +3360,11 @@
       <c r="D115" s="5">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="11">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -3072,8 +3377,9 @@
       <c r="D116" s="5">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="11"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -3086,8 +3392,11 @@
       <c r="D117" s="5">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="11">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -3100,8 +3409,11 @@
       <c r="D118" s="5">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="11">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -3114,8 +3426,9 @@
       <c r="D119" s="5">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="11"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -3128,8 +3441,9 @@
       <c r="D120" s="5">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="11"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -3142,8 +3456,11 @@
       <c r="D121" s="5">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="11">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -3156,8 +3473,11 @@
       <c r="D122" s="5">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="11">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -3170,8 +3490,9 @@
       <c r="D123" s="5">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="11"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -3184,8 +3505,11 @@
       <c r="D124" s="5">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -3198,8 +3522,11 @@
       <c r="D125" s="5">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="11">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -3212,8 +3539,11 @@
       <c r="D126" s="5">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="11">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -3226,8 +3556,9 @@
       <c r="D127" s="5">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="11"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -3240,8 +3571,9 @@
       <c r="D128" s="5">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="11"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -3254,8 +3586,11 @@
       <c r="D129" s="5">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="11">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -3268,8 +3603,11 @@
       <c r="D130" s="5">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="11">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -3282,8 +3620,9 @@
       <c r="D131" s="5">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="11"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -3296,8 +3635,11 @@
       <c r="D132" s="5">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="11">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -3310,8 +3652,11 @@
       <c r="D133" s="5">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="11">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -3324,8 +3669,9 @@
       <c r="D134" s="5">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="11"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -3338,8 +3684,11 @@
       <c r="D135" s="5">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="11">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -3352,8 +3701,11 @@
       <c r="D136" s="5">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="11">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -3366,8 +3718,9 @@
       <c r="D137" s="5">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="11"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -3380,8 +3733,11 @@
       <c r="D138" s="5">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="11">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -3394,8 +3750,11 @@
       <c r="D139" s="5">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="11">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -3408,8 +3767,9 @@
       <c r="D140" s="5">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="11"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -3422,8 +3782,11 @@
       <c r="D141" s="5">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="11">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -3436,8 +3799,11 @@
       <c r="D142" s="5">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="11">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -3450,8 +3816,9 @@
       <c r="D143" s="5">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="11"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -3464,8 +3831,11 @@
       <c r="D144" s="5">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="11">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -3478,8 +3848,11 @@
       <c r="D145" s="5">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="11">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -3492,8 +3865,9 @@
       <c r="D146" s="5">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="11"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -3506,8 +3880,11 @@
       <c r="D147" s="5">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="11">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -3520,8 +3897,11 @@
       <c r="D148" s="5">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="11">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -3534,8 +3914,9 @@
       <c r="D149" s="5">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="11"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -3548,8 +3929,9 @@
       <c r="D150" s="5">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="11"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -3562,8 +3944,11 @@
       <c r="D151" s="5">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="11">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -3576,8 +3961,11 @@
       <c r="D152" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="11">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -3590,8 +3978,9 @@
       <c r="D153" s="5">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="11"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -3604,8 +3993,11 @@
       <c r="D154" s="5">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="11">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -3618,8 +4010,11 @@
       <c r="D155" s="5">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="11">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -3632,8 +4027,9 @@
       <c r="D156" s="5">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="11"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -3646,8 +4042,9 @@
       <c r="D157" s="5">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="11"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -3660,8 +4057,11 @@
       <c r="D158" s="5">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="11">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -3674,8 +4074,11 @@
       <c r="D159" s="5">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="11">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -3688,8 +4091,9 @@
       <c r="D160" s="5">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="11"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -3702,8 +4106,9 @@
       <c r="D161" s="5">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="11"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -3716,8 +4121,11 @@
       <c r="D162" s="5">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="11">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -3730,8 +4138,11 @@
       <c r="D163" s="5">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="11">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -3744,8 +4155,9 @@
       <c r="D164" s="5">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="11"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -3758,8 +4170,9 @@
       <c r="D165" s="5">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="11"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -3772,8 +4185,9 @@
       <c r="D166" s="5">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="11"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -3786,8 +4200,11 @@
       <c r="D167" s="5">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="11">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -3800,8 +4217,11 @@
       <c r="D168" s="5">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="11">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -3814,8 +4234,9 @@
       <c r="D169" s="5">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="11"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -3828,8 +4249,11 @@
       <c r="D170" s="5">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="11">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -3842,8 +4266,11 @@
       <c r="D171" s="5">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="11">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -3856,8 +4283,9 @@
       <c r="D172" s="5">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="11"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -3870,8 +4298,11 @@
       <c r="D173" s="5">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="11">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -3884,8 +4315,11 @@
       <c r="D174" s="5">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="11">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -3898,8 +4332,9 @@
       <c r="D175" s="5">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="11"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -3912,8 +4347,11 @@
       <c r="D176" s="5">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="11">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -3926,8 +4364,11 @@
       <c r="D177" s="5">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="11">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -3940,8 +4381,9 @@
       <c r="D178" s="5">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="11"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -3954,8 +4396,11 @@
       <c r="D179" s="5">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="11">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -3968,8 +4413,9 @@
       <c r="D180" s="5">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="11"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -3982,8 +4428,11 @@
       <c r="D181" s="5">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="11">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -3996,8 +4445,9 @@
       <c r="D182" s="5">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="11"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -4010,8 +4460,11 @@
       <c r="D183" s="5">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="11">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -4024,8 +4477,11 @@
       <c r="D184" s="5">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="11">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -4038,8 +4494,11 @@
       <c r="D185" s="5">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="11">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -4052,8 +4511,11 @@
       <c r="D186" s="5">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="11">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -4066,8 +4528,11 @@
       <c r="D187" s="5">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="11">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -4080,8 +4545,9 @@
       <c r="D188" s="5">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="11"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -4094,8 +4560,11 @@
       <c r="D189" s="5">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="11">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -4108,8 +4577,9 @@
       <c r="D190" s="5">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="11"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -4122,8 +4592,11 @@
       <c r="D191" s="5">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="11">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -4136,8 +4609,11 @@
       <c r="D192" s="5">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="11">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -4150,8 +4626,11 @@
       <c r="D193" s="5">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="11">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -4164,8 +4643,11 @@
       <c r="D194" s="5">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="11">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -4178,8 +4660,11 @@
       <c r="D195" s="5">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="11">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -4192,8 +4677,11 @@
       <c r="D196" s="5">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="11">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -4206,8 +4694,11 @@
       <c r="D197" s="5">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="11">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -4220,8 +4711,11 @@
       <c r="D198" s="5">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="11">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -4234,8 +4728,11 @@
       <c r="D199" s="5">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="11">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -4248,8 +4745,11 @@
       <c r="D200" s="5">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="11">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -4262,8 +4762,9 @@
       <c r="D201" s="5">
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="11"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -4276,8 +4777,11 @@
       <c r="D202" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="11">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -4290,8 +4794,9 @@
       <c r="D203" s="5">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="11"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -4304,8 +4809,11 @@
       <c r="D204" s="5">
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="11">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -4318,8 +4826,11 @@
       <c r="D205" s="5">
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="11">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -4332,8 +4843,11 @@
       <c r="D206" s="5">
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="11">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -4346,8 +4860,9 @@
       <c r="D207" s="5">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="11"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -4360,8 +4875,11 @@
       <c r="D208" s="5">
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="11">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -4374,8 +4892,11 @@
       <c r="D209" s="5">
         <v>207</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="11">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -4388,8 +4909,11 @@
       <c r="D210" s="5">
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="11">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -4402,8 +4926,9 @@
       <c r="D211" s="5">
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="11"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -4416,8 +4941,11 @@
       <c r="D212" s="5">
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="11">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -4430,8 +4958,11 @@
       <c r="D213" s="5">
         <v>211</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="11">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -4444,8 +4975,11 @@
       <c r="D214" s="5">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="11">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -4458,8 +4992,9 @@
       <c r="D215" s="5">
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="11"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -4472,8 +5007,11 @@
       <c r="D216" s="5">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="11">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -4486,8 +5024,11 @@
       <c r="D217" s="5">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="11">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -4500,8 +5041,9 @@
       <c r="D218" s="5">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="11"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -4514,8 +5056,11 @@
       <c r="D219" s="5">
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="11">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -4528,8 +5073,11 @@
       <c r="D220" s="5">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="11">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -4542,8 +5090,9 @@
       <c r="D221" s="5">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="11"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -4556,8 +5105,11 @@
       <c r="D222" s="5">
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="11">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -4570,8 +5122,11 @@
       <c r="D223" s="5">
         <v>221</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="11">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -4584,8 +5139,11 @@
       <c r="D224" s="5">
         <v>222</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="11">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -4598,8 +5156,11 @@
       <c r="D225" s="5">
         <v>223</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="11">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -4612,8 +5173,9 @@
       <c r="D226" s="5">
         <v>224</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="11"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -4626,8 +5188,11 @@
       <c r="D227" s="5">
         <v>225</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="11">
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -4640,8 +5205,11 @@
       <c r="D228" s="5">
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="11">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -4654,8 +5222,11 @@
       <c r="D229" s="5">
         <v>227</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="11">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -4668,8 +5239,9 @@
       <c r="D230" s="5">
         <v>228</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="11"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -4682,8 +5254,11 @@
       <c r="D231" s="5">
         <v>229</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="11">
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -4696,8 +5271,11 @@
       <c r="D232" s="5">
         <v>230</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="11">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -4710,8 +5288,9 @@
       <c r="D233" s="5">
         <v>231</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="11"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -4724,8 +5303,11 @@
       <c r="D234" s="5">
         <v>232</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="11">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -4738,8 +5320,11 @@
       <c r="D235" s="5">
         <v>233</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="11">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -4752,8 +5337,9 @@
       <c r="D236" s="5">
         <v>234</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="11"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -4766,8 +5352,11 @@
       <c r="D237" s="5">
         <v>235</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="11">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -4780,8 +5369,11 @@
       <c r="D238" s="5">
         <v>236</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="11">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -4794,8 +5386,9 @@
       <c r="D239" s="5">
         <v>237</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="11"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -4808,8 +5401,11 @@
       <c r="D240" s="5">
         <v>238</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="11">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -4822,8 +5418,11 @@
       <c r="D241" s="5">
         <v>239</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="11">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -4836,8 +5435,11 @@
       <c r="D242" s="5">
         <v>240</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="12">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -4850,8 +5452,9 @@
       <c r="D243" s="5">
         <v>241</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="13"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>243</v>
       </c>
@@ -4864,8 +5467,11 @@
       <c r="D244" s="5">
         <v>242</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="11">
+        <v>99991</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>244</v>
       </c>
@@ -4878,8 +5484,11 @@
       <c r="D245" s="5">
         <v>243</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="11">
+        <v>99992</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -4892,8 +5501,9 @@
       <c r="D246" s="5">
         <v>244</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="13"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>246</v>
       </c>
@@ -4906,8 +5516,11 @@
       <c r="D247" s="5">
         <v>245</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="11">
+        <v>99993</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>247</v>
       </c>
@@ -4919,6 +5532,9 @@
       </c>
       <c r="D248" s="5">
         <v>246</v>
+      </c>
+      <c r="E248" s="11">
+        <v>99994</v>
       </c>
     </row>
   </sheetData>

--- a/datagizi.xlsx
+++ b/datagizi.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sipt_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EDCDC5-7259-430D-8093-A2EE63045DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B4A63-BA11-4A90-B435-F06903C06642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7AB274CF-EEAD-49D7-B622-23CC650CDFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$248</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1080,7 +1083,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1114,11 +1117,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1165,6 +1177,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1481,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D16ACC9-0FF1-4A96-A679-51B3A5F8EC00}">
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1507,7 @@
     <col min="1" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1524,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1525,7 +1540,7 @@
       </c>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1539,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12121212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1574,7 +1589,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1608,7 +1623,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1623,7 +1638,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1638,7 +1653,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1654,8 +1669,9 @@
       <c r="E10" s="11">
         <v>6056</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1671,8 +1687,9 @@
       <c r="E11" s="11">
         <v>6057</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1687,7 +1704,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1704,7 +1721,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1721,7 +1738,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1736,7 +1753,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5538,6 +5555,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E248" xr:uid="{4D16ACC9-0FF1-4A96-A679-51B3A5F8EC00}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/datagizi.xlsx
+++ b/datagizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sipt_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B4A63-BA11-4A90-B435-F06903C06642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7179A28-1A85-4FDF-8705-1788FBEFE6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7AB274CF-EEAD-49D7-B622-23CC650CDFB0}"/>
   </bookViews>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:F248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="D2" s="3">
         <f>D3+D4</f>
-        <v>3</v>
+        <v>333335</v>
       </c>
       <c r="E2" s="11"/>
     </row>
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>333333</v>
       </c>
       <c r="E3" s="11">
         <v>12121212</v>
@@ -1571,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="11">
-        <v>429</v>
+        <v>91919191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/datagizi.xlsx
+++ b/datagizi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sipt_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7179A28-1A85-4FDF-8705-1788FBEFE6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA08EA4-4806-4B9B-8077-7987A1DA8604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7AB274CF-EEAD-49D7-B622-23CC650CDFB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{7AB274CF-EEAD-49D7-B622-23CC650CDFB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:F248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="11">
-        <v>431</v>
+        <v>123123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
